--- a/Datos_registro.xlsx
+++ b/Datos_registro.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="30" uniqueCount="23">
   <si>
     <t>Nombre</t>
   </si>
@@ -49,6 +49,39 @@
   </si>
   <si>
     <t>123456</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>J@gmail.com</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>Beatriz</t>
+  </si>
+  <si>
+    <t>Orallo Gil</t>
+  </si>
+  <si>
+    <t>beatriz.orallo@alumni.mondragon.edu</t>
+  </si>
+  <si>
+    <t>bea</t>
+  </si>
+  <si>
+    <t>Jokin</t>
+  </si>
+  <si>
+    <t>Conde Gonzalez</t>
+  </si>
+  <si>
+    <t>jokin.conde@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -94,18 +127,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="true"/>
-    <col min="2" max="2" width="8.33203125" customWidth="true"/>
-    <col min="3" max="3" width="15.88671875" customWidth="true"/>
-    <col min="4" max="4" width="15.6640625" customWidth="true"/>
-    <col min="5" max="5" width="10.33203125" customWidth="true"/>
-    <col min="6" max="6" width="22.88671875" customWidth="true"/>
+    <col min="1" max="1" width="7.7265625" customWidth="true"/>
+    <col min="2" max="2" width="14.26953125" customWidth="true"/>
+    <col min="3" max="3" width="33.54296875" customWidth="true"/>
+    <col min="4" max="4" width="16.08984375" customWidth="true"/>
+    <col min="5" max="5" width="10.453125" customWidth="true"/>
+    <col min="6" max="6" width="23.1796875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -148,6 +181,66 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>